--- a/biology/Médecine/Jean-Pierre_Willem/Jean-Pierre_Willem.xlsx
+++ b/biology/Médecine/Jean-Pierre_Willem/Jean-Pierre_Willem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Pierre Willem, né le 24 mai 1938 à Villers-Cernay (Ardennes), est un ancien médecin et chirurgien itinérant ayant accompli des missions dans diverses zones de conflit en Afrique, au Moyen-Orient et en Asie, des années 1960 aux années 1980. 
-Il s'est fait le promoteur de méthodes thérapeutiques alternatives[1]. Radié de l'ordre des médecins en 1987, il fonde l'ONG humanitaire internationale Médecins aux pieds nus (MAPN) la même année[2], et la Faculté libre de médecines naturelles et d'ethnomédecine (FLMM) en 1986[3].
-Il est l'auteur de 45 ouvrages rapportant ses missions de médecin de guerre ou vantant l'ethnomédecine et les remèdes naturels[4].
+Il s'est fait le promoteur de méthodes thérapeutiques alternatives. Radié de l'ordre des médecins en 1987, il fonde l'ONG humanitaire internationale Médecins aux pieds nus (MAPN) la même année, et la Faculté libre de médecines naturelles et d'ethnomédecine (FLMM) en 1986.
+Il est l'auteur de 45 ouvrages rapportant ses missions de médecin de guerre ou vantant l'ethnomédecine et les remèdes naturels.
 </t>
         </is>
       </c>
@@ -515,23 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Études
-Issu d'un milieu catholique, Jean-Pierre Willem fait toute sa scolarité secondaire au petit séminaire de Reims. Il entame ensuite des études de médecine à la Faculté de médecine de Lille[5]. Il est reçu major à l'internat de médecine[4].
-Activités humanitaires
-Il déclare avoir mené de nombreuses missions humanitaires auprès des victimes de catastrophes et de conflits, en commençant, en 1959, par l'Algérie[5] en pleine guerre d'indépendance. 
-En 1964, il rejoint comme assistant le Dr Albert Schweitzer à Lambaréné (Gabon)[4].
-Il est ensuite médecin coopérant au Rwanda (1966-1967), médecin des orphelins et des réfugiés au Viêt Nam et au Cambodge (1968-1975)[6], médecin chef sur le chantier du Transgabonais (1976-1977), auprès des réfugiés laotiens dans le Triangle d'or (Asie Sud-Est) (1977), auprès des victimes de la famine au Zaïre (1979) et à l'hôpital d'indigents de Kinshasa (1981), chirurgien au Liban (1976, 1978, 1983), sur le front Iran-Irak (1982), en Somalie (1984) et, plus récemment, en Syrie (2014)[7],[4].
-Au hasard de ses missions, il croise des figures connues : outre Albert Schweitzer, aussi Che Guevara, l'abbé Pierre, Mère Teresa[4].
-L'expérience acquise lors de ses séjours dans les pays en voie de développement le convainc que le manque de médecins professionnels peut être compensé en faisant appel aux guérisseurs indigènes utilisant les plantes locales pour soigner et que l'Occident lui-même peut bénéficier de leurs connaissances[8].
-En 1987, Jean-Pierre Willem est radié de l'Ordre des médecins, ce qui lui interdit l'exercice de la médecine[9]. Il déclare en faire peu de cas, arguant qu'il n'a jamais demandé son inscription au registre de cet ordre[4]. Il poursuit dès lors des activités d'enseignement dans le cadre de la Faculté libre de médecines naturelles et d'ethnomédecine (FLMM) qu'il a créée à Paris en 1986[9].
-Activités dans les médecines alternatives
-Au sein de cette faculté établie dans le XVe arrondissement de Paris, il forme le tout venant à la médecine naturelle et à l’ethnomédecine[9]. En matière de soins, il se réfère surtout à l’homéopathie, la phytothérapie, l’oligothérapie[10] et l'aromathérapie (pseudo-médecine basée sur l'utilisation d'huiles essentielles), pour traiter des maladies graves (sida, cancer)[9]. 
-Après avoir déclaré sur Radio Courtoisie le 12 mars 2006, qu'il pouvait guérir le sida avec des huiles essentielles[note 1], il est soupçonné d'avoir appliqué ses théories via son ONG les Médecins aux pieds nus auprès d'enfants atteints du VIH notamment au Togo et au Burundi[9].
-Il dénonce une médecine devenue de plus en plus intrusive[11].
-En 2021, il se définit comme médecin, chirurgien et anthropologue[10].
-Activités éditoriales et rédactionnelles
-De 2000 à 2007, il a assuré les fonctions d'éditorialiste du bimensuel Pratiques de santé et, à partir de septembre 2007, celle de rédacteur consultant de la revue Révélations Santé, qui a cessé de paraître. 
-Jusqu'en 2012, il collabore, sur des sujets de médecine alternative, à la revue Votre santé puis, passé cette date, à sa nouvelle formule, Le Nouveau VVS, Vous et Votre Santé[12].
+          <t>Études</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Issu d'un milieu catholique, Jean-Pierre Willem fait toute sa scolarité secondaire au petit séminaire de Reims. Il entame ensuite des études de médecine à la Faculté de médecine de Lille. Il est reçu major à l'internat de médecine.
 </t>
         </is>
       </c>
@@ -557,14 +559,171 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Activités humanitaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il déclare avoir mené de nombreuses missions humanitaires auprès des victimes de catastrophes et de conflits, en commençant, en 1959, par l'Algérie en pleine guerre d'indépendance. 
+En 1964, il rejoint comme assistant le Dr Albert Schweitzer à Lambaréné (Gabon).
+Il est ensuite médecin coopérant au Rwanda (1966-1967), médecin des orphelins et des réfugiés au Viêt Nam et au Cambodge (1968-1975), médecin chef sur le chantier du Transgabonais (1976-1977), auprès des réfugiés laotiens dans le Triangle d'or (Asie Sud-Est) (1977), auprès des victimes de la famine au Zaïre (1979) et à l'hôpital d'indigents de Kinshasa (1981), chirurgien au Liban (1976, 1978, 1983), sur le front Iran-Irak (1982), en Somalie (1984) et, plus récemment, en Syrie (2014),.
+Au hasard de ses missions, il croise des figures connues : outre Albert Schweitzer, aussi Che Guevara, l'abbé Pierre, Mère Teresa.
+L'expérience acquise lors de ses séjours dans les pays en voie de développement le convainc que le manque de médecins professionnels peut être compensé en faisant appel aux guérisseurs indigènes utilisant les plantes locales pour soigner et que l'Occident lui-même peut bénéficier de leurs connaissances.
+En 1987, Jean-Pierre Willem est radié de l'Ordre des médecins, ce qui lui interdit l'exercice de la médecine. Il déclare en faire peu de cas, arguant qu'il n'a jamais demandé son inscription au registre de cet ordre. Il poursuit dès lors des activités d'enseignement dans le cadre de la Faculté libre de médecines naturelles et d'ethnomédecine (FLMM) qu'il a créée à Paris en 1986.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean-Pierre_Willem</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Pierre_Willem</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Activités dans les médecines alternatives</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au sein de cette faculté établie dans le XVe arrondissement de Paris, il forme le tout venant à la médecine naturelle et à l’ethnomédecine. En matière de soins, il se réfère surtout à l’homéopathie, la phytothérapie, l’oligothérapie et l'aromathérapie (pseudo-médecine basée sur l'utilisation d'huiles essentielles), pour traiter des maladies graves (sida, cancer). 
+Après avoir déclaré sur Radio Courtoisie le 12 mars 2006, qu'il pouvait guérir le sida avec des huiles essentielles[note 1], il est soupçonné d'avoir appliqué ses théories via son ONG les Médecins aux pieds nus auprès d'enfants atteints du VIH notamment au Togo et au Burundi.
+Il dénonce une médecine devenue de plus en plus intrusive.
+En 2021, il se définit comme médecin, chirurgien et anthropologue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean-Pierre_Willem</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Pierre_Willem</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Activités éditoriales et rédactionnelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 2000 à 2007, il a assuré les fonctions d'éditorialiste du bimensuel Pratiques de santé et, à partir de septembre 2007, celle de rédacteur consultant de la revue Révélations Santé, qui a cessé de paraître. 
+Jusqu'en 2012, il collabore, sur des sujets de médecine alternative, à la revue Votre santé puis, passé cette date, à sa nouvelle formule, Le Nouveau VVS, Vous et Votre Santé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean-Pierre_Willem</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Pierre_Willem</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Jean-Pierre Willem a écrit quelque 45 ouvrages rapportant ses missions de médecin de guerre dans différents pays ou faisant la promotion des pratiques de l'ethnomédecine et des remèdes naturels[4].
-Livres
-(Docteur Jean-Pierre Willem) Médecin au Viêt-Nam en feu, Paris, Éditions France-Empire, 1978, 366 p.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Pierre Willem a écrit quelque 45 ouvrages rapportant ses missions de médecin de guerre dans différents pays ou faisant la promotion des pratiques de l'ethnomédecine et des remèdes naturels.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jean-Pierre_Willem</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Pierre_Willem</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Docteur Jean-Pierre Willem) Médecin au Viêt-Nam en feu, Paris, Éditions France-Empire, 1978, 366 p.
 (Docteur Jean-Pierre Willem) Les Naufragés de la liberté : le dernier exode des Méos, Paris, Éditions S.O.S., 1980, 285 p.  (ISBN 2-7185-0879-5)
 Et la paix, docteur ? Un médecin sur tous les fronts, Paris, Robert Laffont, coll. "VECU", 1985, 318 p.  (ISBN 2-221-04616-1)
 Le secret des peuples sans cancer, Éditions du Dauphin, 1994
@@ -594,9 +753,43 @@
 Huiles essentielles antivirales: La solution naturelle pour lutter contre les infections, Éditions Trédaniel, 2015
 Pollution et santé, éditions Dangles, 2017 (compte rendu sous le titre Docteur Jean-Pierre Willem : « Nous sommes tous empoisonnés », dans CNEWS, 22 juin 2017)
 Alzheimer et odorat : Quand les arômes restaurent la mémoire, Éditions Trédaniel, 2020
-Tout savoir sur les virus et y faire face, Dauphin Éditions, 2020, 228 p. (compte rendu, dans HEGEL, 2021/1 (No 1), p. 102)
-Articles
-« Quand j’étais médecin de Jean-Paul Belmondo », association-biologique-internationale.com, 16 septembre 2021</t>
+Tout savoir sur les virus et y faire face, Dauphin Éditions, 2020, 228 p. (compte rendu, dans HEGEL, 2021/1 (No 1), p. 102)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jean-Pierre_Willem</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Pierre_Willem</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>« Quand j’étais médecin de Jean-Paul Belmondo », association-biologique-internationale.com, 16 septembre 2021</t>
         </is>
       </c>
     </row>
